--- a/名单.xlsx
+++ b/名单.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -482,6 +482,81 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>计科235</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>孟思远</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>计科242</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>马景悦</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>计科235</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>贺静怡</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>智能221</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>梅赞</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>数媒241</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>孙博文</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/名单.xlsx
+++ b/名单.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -557,6 +557,36 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>电信231</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>杨敬媚</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>电信231</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>石梦琴</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
